--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt2-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt2-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,12 +92,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1341725</v>
+        <v>0.1557005</v>
       </c>
       <c r="N2">
-        <v>0.268345</v>
+        <v>0.311401</v>
       </c>
       <c r="O2">
-        <v>0.01633512969336317</v>
+        <v>0.02102398211576467</v>
       </c>
       <c r="P2">
-        <v>0.01188426112752495</v>
+        <v>0.01500040222529337</v>
       </c>
       <c r="Q2">
-        <v>0.07708719980499999</v>
+        <v>0.089455853869</v>
       </c>
       <c r="R2">
-        <v>0.46252319883</v>
+        <v>0.536735123214</v>
       </c>
       <c r="S2">
-        <v>0.01633512969336317</v>
+        <v>0.02102398211576467</v>
       </c>
       <c r="T2">
-        <v>0.01188426112752495</v>
+        <v>0.01500040222529337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +623,10 @@
         <v>17.771067</v>
       </c>
       <c r="O3">
-        <v>0.7211927040052828</v>
+        <v>0.7998659708565604</v>
       </c>
       <c r="P3">
-        <v>0.787031622511101</v>
+        <v>0.8560446272575798</v>
       </c>
       <c r="Q3">
         <v>3.403384430682</v>
@@ -641,10 +635,10 @@
         <v>30.630459876138</v>
       </c>
       <c r="S3">
-        <v>0.7211927040052828</v>
+        <v>0.7998659708565604</v>
       </c>
       <c r="T3">
-        <v>0.787031622511101</v>
+        <v>0.8560446272575798</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.007277666666666666</v>
+        <v>0.024117</v>
       </c>
       <c r="N4">
-        <v>0.021833</v>
+        <v>0.072351</v>
       </c>
       <c r="O4">
-        <v>0.0008860357291178598</v>
+        <v>0.003256478795417461</v>
       </c>
       <c r="P4">
-        <v>0.0009669234500260938</v>
+        <v>0.003485197868350457</v>
       </c>
       <c r="Q4">
-        <v>0.004181296051333333</v>
+        <v>0.013856132946</v>
       </c>
       <c r="R4">
-        <v>0.037631664462</v>
+        <v>0.124705196514</v>
       </c>
       <c r="S4">
-        <v>0.0008860357291178598</v>
+        <v>0.003256478795417461</v>
       </c>
       <c r="T4">
-        <v>0.0009669234500260938</v>
+        <v>0.003485197868350457</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,152 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.927182</v>
+        <v>1.3023455</v>
       </c>
       <c r="N5">
-        <v>3.854364</v>
+        <v>2.604691</v>
       </c>
       <c r="O5">
-        <v>0.2346290626821072</v>
+        <v>0.1758535682322574</v>
       </c>
       <c r="P5">
-        <v>0.1706991680729343</v>
+        <v>0.1254697726487764</v>
       </c>
       <c r="Q5">
-        <v>1.107239291916</v>
+        <v>0.7482469788789999</v>
       </c>
       <c r="R5">
-        <v>6.643435751496</v>
+        <v>4.489481873273999</v>
       </c>
       <c r="S5">
-        <v>0.2346290626821072</v>
+        <v>0.1758535682322574</v>
       </c>
       <c r="T5">
-        <v>0.1706991680729343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.574538</v>
-      </c>
-      <c r="H6">
-        <v>1.723614</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.1820473333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.5461419999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.02216375785150397</v>
-      </c>
-      <c r="P6">
-        <v>0.02418712530775207</v>
-      </c>
-      <c r="Q6">
-        <v>0.1045931107986666</v>
-      </c>
-      <c r="R6">
-        <v>0.9413379971879998</v>
-      </c>
-      <c r="S6">
-        <v>0.02216375785150397</v>
-      </c>
-      <c r="T6">
-        <v>0.02418712530775207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.574538</v>
-      </c>
-      <c r="H7">
-        <v>1.723614</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.039371</v>
-      </c>
-      <c r="N7">
-        <v>0.118113</v>
-      </c>
-      <c r="O7">
-        <v>0.004793310038624916</v>
-      </c>
-      <c r="P7">
-        <v>0.005230899530661477</v>
-      </c>
-      <c r="Q7">
-        <v>0.022620135598</v>
-      </c>
-      <c r="R7">
-        <v>0.203581220382</v>
-      </c>
-      <c r="S7">
-        <v>0.004793310038624916</v>
-      </c>
-      <c r="T7">
-        <v>0.005230899530661477</v>
+        <v>0.1254697726487764</v>
       </c>
     </row>
   </sheetData>
